--- a/analiza_uporabniskega_AB_testiranja.xlsx
+++ b/analiza_uporabniskega_AB_testiranja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\KCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D86D772-4D18-4E7E-91CB-76EF3337EECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5E275-C0B5-4FF3-B9F7-E506B64285D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="171">
   <si>
     <t>test 1</t>
   </si>
@@ -457,13 +457,106 @@
   </si>
   <si>
     <t>»Več stvari dsotopne preko domov.«</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Mislil da je landing page že samo rangiranje</t>
+  </si>
+  <si>
+    <t>Iskanje gumba »primerjaj«</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitro poklikal dobavitelje, malo dalj časa iskanje gumba »primerjaj« </t>
+  </si>
+  <si>
+    <t>Kliknil na mail namesto »pošlji sporočilo«</t>
+  </si>
+  <si>
+    <t>Ni mu bila všeč puščica nazaj, ki ni bila obrnjena nazaj</t>
+  </si>
+  <si>
+    <t>Zadrževanje pri grupah pravic</t>
+  </si>
+  <si>
+    <t>Najprej gledal grupe pravic, čez nekoliko časa najdel + gumb.</t>
+  </si>
+  <si>
+    <t>veliko</t>
+  </si>
+  <si>
+    <t>Ni našel gumba</t>
+  </si>
+  <si>
+    <t>Ni našel gumba, mislil da je to stran že rangirana</t>
+  </si>
+  <si>
+    <t>Gumb za primerjanje ni bil pritisnjen</t>
+  </si>
+  <si>
+    <t>Kliknu vse 3 ampak ni kliknu primerjaj, premalo vidni, vizualno zlo skriti</t>
+  </si>
+  <si>
+    <t>Klikanje in iskanje na vse</t>
+  </si>
+  <si>
+    <t>Ni vedel ali rabi nazaj ali domov, kliknil na dobavitelji pa ni slo domov, hitro kliknil na a, ni najdel sporocila</t>
+  </si>
+  <si>
+    <t>Klikal na vse kar se da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klikal pri strani, klikal na dobavitelji, na primerjaj, ni bilo intuitivno da lahko </t>
+  </si>
+  <si>
+    <t>Klikal na vse kar se da, pri pravicah težave pri dodajanju</t>
+  </si>
+  <si>
+    <t>Klikal na dobavitelji, nabava, dobavitelji, nato na nastavitve, videl mojca, ni dojel kje se pravice zbira, kliklal na mojca, sel v +, nato sele pravice</t>
+  </si>
+  <si>
+    <t>Težave pri dodajanju pravic</t>
+  </si>
+  <si>
+    <t>Gledal skupine pravic, kklikal na izberi skupino, nato plus, nato poklikal pravilno</t>
+  </si>
+  <si>
+    <t>V živo</t>
+  </si>
+  <si>
+    <t>Ni takoj videl menija za rangiranje na levi strani. 1 napaka</t>
+  </si>
+  <si>
+    <t>1 napaka – ni prebral kaj piše na gumbu, ker je predvideval da je gumb isti kot pod stranjo rangiranje dobaviteljev.</t>
+  </si>
+  <si>
+    <t>Ni opazil oz. ni vedel da je plus za dodajanje dodatnih pravic</t>
+  </si>
+  <si>
+    <t>1 napaka – Ni našel podrobnosti dobavitelja</t>
+  </si>
+  <si>
+    <t>Mogoče bi kje moral bit gumb do podrobnosti posameznega dobavitelja.</t>
+  </si>
+  <si>
+    <t>1 napaka - ni vedel da so te podatki pod podrobnem pregledu dobavitelja</t>
+  </si>
+  <si>
+    <t>Zavedlo ga je ime zavihka.</t>
+  </si>
+  <si>
+    <t>1 napaka – ni pričakoval da je to pod nastavitvami</t>
+  </si>
+  <si>
+    <t>1 napaka – ni kliknil gumba shrani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +575,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -531,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -553,6 +653,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="29" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AY4" sqref="AY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,8 +1652,8 @@
       <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>114</v>
+      <c r="F5" s="11">
+        <v>45649</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>35</v>
@@ -1686,116 +1790,284 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="1">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10">
+        <v>45299</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>28</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="4">
+        <v>7</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="X6" s="7">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>28</v>
+      </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
+      <c r="AH6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>13</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
+      <c r="AO6" s="7">
+        <v>7</v>
+      </c>
       <c r="AP6" s="7"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
+      <c r="AQ6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>13</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
+      <c r="AF7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>55</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>24</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
@@ -2283,115 +2555,267 @@
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45664</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="7">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>120</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T13" s="4">
+        <v>4</v>
+      </c>
       <c r="U13" s="4"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
+      <c r="V13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="X13" s="7">
+        <v>5</v>
+      </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
+      <c r="AA13" s="7">
+        <v>7</v>
+      </c>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
+      <c r="AC13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>5</v>
+      </c>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
+      <c r="AH13" s="4">
+        <v>7</v>
+      </c>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
+      <c r="AJ13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>4</v>
+      </c>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
+      <c r="AO13" s="7">
+        <v>7</v>
+      </c>
       <c r="AP13" s="7"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
+      <c r="AQ13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>30</v>
+      </c>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
+      <c r="AV13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="1">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45665</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="7">
+        <v>20</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>22</v>
+      </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="4">
+        <v>7</v>
+      </c>
       <c r="U14" s="4"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
+      <c r="V14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" s="7">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>43</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>7</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>240</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>2</v>
+      </c>
       <c r="AP14" s="7"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
+      <c r="AQ14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>20</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>4</v>
+      </c>
       <c r="AW14" s="4"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
@@ -2811,7 +3235,7 @@
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
-        <v>24.166666666666668</v>
+        <v>32.9</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2822,39 +3246,39 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7">
         <f>AVERAGE(J2:J21)</f>
-        <v>23.333333333333332</v>
+        <v>21.625</v>
       </c>
       <c r="K22" s="7">
         <f>AVERAGE(K2:K21)</f>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7">
         <f>AVERAGE(M2:M21)</f>
-        <v>5.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="5">
         <f>AVERAGE(Q2:Q21)</f>
-        <v>36.333333333333336</v>
+        <v>43.111111111111114</v>
       </c>
       <c r="R22" s="4">
         <f>AVERAGE(R2:R21)</f>
-        <v>1.3333333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4">
         <f>AVERAGE(T2:T21)</f>
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7">
         <f>AVERAGE(X2:X21)</f>
-        <v>11.5</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>

--- a/analiza_uporabniskega_AB_testiranja.xlsx
+++ b/analiza_uporabniskega_AB_testiranja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\KCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E71232-65C6-4EF6-A4C6-FB1E608F05B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD94FADC-9651-4BFC-A18E-5761B545D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="198">
   <si>
     <t>test 1</t>
   </si>
@@ -580,6 +580,57 @@
   </si>
   <si>
     <t>A POVPREČJE</t>
+  </si>
+  <si>
+    <t>0,3 Š</t>
+  </si>
+  <si>
+    <t>0,7 NE</t>
+  </si>
+  <si>
+    <t>0,7 ŽIVO</t>
+  </si>
+  <si>
+    <t>0,8 DA</t>
+  </si>
+  <si>
+    <t>0,7 DA</t>
+  </si>
+  <si>
+    <t>0,9 DA</t>
+  </si>
+  <si>
+    <t>0,85 NE</t>
+  </si>
+  <si>
+    <t>0,71 DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,85 DA</t>
+  </si>
+  <si>
+    <t>0,85 DA</t>
+  </si>
+  <si>
+    <t>1 DA</t>
+  </si>
+  <si>
+    <t>0,66 NE</t>
+  </si>
+  <si>
+    <t>0,66 DA</t>
+  </si>
+  <si>
+    <t>1 ŽIVO</t>
+  </si>
+  <si>
+    <t>0,57 ŽIVO</t>
+  </si>
+  <si>
+    <t>0,66 Š</t>
+  </si>
+  <si>
+    <t>0,28 Š</t>
   </si>
 </sst>
 </file>
@@ -944,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1079,7 +1130,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,15 +3828,23 @@
         <f>AVERAGE(B2:B10)</f>
         <v>36</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="I21" s="50" t="s">
+        <v>188</v>
+      </c>
       <c r="J21" s="50">
-        <f t="shared" ref="C21:BB21" si="0">AVERAGE(J2:J10)</f>
+        <f t="shared" ref="J21:AY21" si="0">AVERAGE(J2:J10)</f>
         <v>22.8</v>
       </c>
       <c r="K21" s="50">
@@ -3799,7 +3858,9 @@
       </c>
       <c r="N21" s="50"/>
       <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
+      <c r="P21" s="49" t="s">
+        <v>189</v>
+      </c>
       <c r="Q21" s="49">
         <f t="shared" si="0"/>
         <v>19.333333333333332</v>
@@ -3815,7 +3876,9 @@
       </c>
       <c r="U21" s="49"/>
       <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
+      <c r="W21" s="50" t="s">
+        <v>188</v>
+      </c>
       <c r="X21" s="50">
         <f t="shared" si="0"/>
         <v>17.5</v>
@@ -3831,7 +3894,9 @@
       </c>
       <c r="AB21" s="50"/>
       <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
+      <c r="AD21" s="49" t="s">
+        <v>190</v>
+      </c>
       <c r="AE21" s="49">
         <f t="shared" si="0"/>
         <v>17.666666666666668</v>
@@ -3847,7 +3912,9 @@
       </c>
       <c r="AI21" s="49"/>
       <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
+      <c r="AK21" s="50" t="s">
+        <v>191</v>
+      </c>
       <c r="AL21" s="50">
         <f t="shared" si="0"/>
         <v>51.571428571428569</v>
@@ -3863,7 +3930,9 @@
       </c>
       <c r="AP21" s="50"/>
       <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
+      <c r="AR21" s="49" t="s">
+        <v>191</v>
+      </c>
       <c r="AS21" s="49">
         <f t="shared" si="0"/>
         <v>11.857142857142858</v>
@@ -3897,19 +3966,27 @@
         <f>AVERAGE(B12:B20)</f>
         <v>25.666666666666668</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="J22" s="5">
         <f>AVERAGE(J12:J20)</f>
         <v>19.666666666666668</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ref="K22:BB22" si="1">AVERAGE(K12:K20)</f>
+        <f t="shared" ref="K22:AY22" si="1">AVERAGE(K12:K20)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="L22" s="5"/>
@@ -3919,7 +3996,9 @@
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="Q22" s="2">
         <f t="shared" si="1"/>
         <v>90.666666666666671</v>
@@ -3935,7 +4014,9 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="W22" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="X22" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3951,7 +4032,9 @@
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
+      <c r="AD22" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="AE22" s="2">
         <f t="shared" si="1"/>
         <v>7.333333333333333</v>
@@ -3967,7 +4050,9 @@
       </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
+      <c r="AK22" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="AL22" s="5">
         <f t="shared" si="1"/>
         <v>5.333333333333333</v>
@@ -3983,7 +4068,9 @@
       </c>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
+      <c r="AR22" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="AS22" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -4017,19 +4104,27 @@
         <f>AVERAGE(B2:B20)</f>
         <v>32.9</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="J23" s="5">
         <f>AVERAGE(J2:J20)</f>
         <v>21.625</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ref="K23:BB23" si="2">AVERAGE(K2:K20)</f>
+        <f t="shared" ref="K23:AY23" si="2">AVERAGE(K2:K20)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="L23" s="5"/>
@@ -4039,7 +4134,9 @@
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="Q23" s="2">
         <f t="shared" si="2"/>
         <v>43.111111111111114</v>
@@ -4055,7 +4152,9 @@
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="W23" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="X23" s="5">
         <f t="shared" si="2"/>
         <v>16.333333333333332</v>
@@ -4071,7 +4170,9 @@
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
+      <c r="AD23" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="AE23" s="2">
         <f t="shared" si="2"/>
         <v>14.222222222222221</v>
@@ -4087,7 +4188,9 @@
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
+      <c r="AK23" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="AL23" s="5">
         <f t="shared" si="2"/>
         <v>37.700000000000003</v>
@@ -4103,7 +4206,9 @@
       </c>
       <c r="AP23" s="5"/>
       <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
+      <c r="AR23" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="AS23" s="2">
         <f t="shared" si="2"/>
         <v>14</v>

--- a/analiza_uporabniskega_AB_testiranja.xlsx
+++ b/analiza_uporabniskega_AB_testiranja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\KCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD94FADC-9651-4BFC-A18E-5761B545D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F3940-AA46-489B-95B2-EDD83A629090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="2895" windowWidth="25335" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="U13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="5" t="s">
         <v>193</v>
       </c>
       <c r="X22" s="5">

--- a/analiza_uporabniskega_AB_testiranja.xlsx
+++ b/analiza_uporabniskega_AB_testiranja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anapoklukar/Desktop/kcr_project/KCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F3940-AA46-489B-95B2-EDD83A629090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE16623-619F-AC4B-880C-5AFF6FE3E6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="2895" windowWidth="25335" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="194">
   <si>
     <t>test 1</t>
   </si>
@@ -125,9 +125,6 @@
     <t>splet</t>
   </si>
   <si>
-    <t>9.12.24, 20.36</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>živo</t>
   </si>
   <si>
-    <t>10. 12. 2024, 9.30</t>
-  </si>
-  <si>
     <t>Rabu ful časa na first pagu, skrit gumb, vizualna hierarhija ni najboljsa, je samoumevn</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
   </si>
   <si>
     <t>Ja, razvija podobno, ne čisto</t>
-  </si>
-  <si>
-    <t>10. 12. 2024, 9.50</t>
   </si>
   <si>
     <t>B</t>
@@ -364,9 +355,6 @@
   </si>
   <si>
     <t>Ne nikoli</t>
-  </si>
-  <si>
-    <t>23.12.2024</t>
   </si>
   <si>
     <t>DA</t>
@@ -973,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,9 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,10 +1057,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1092,9 +1073,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1142,9 +1120,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,1901 +1441,1903 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="3" customWidth="1"/>
     <col min="18" max="18" width="16" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="3" customWidth="1"/>
     <col min="20" max="20" width="9" style="3"/>
-    <col min="21" max="21" width="47.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="47.1640625" style="3" customWidth="1"/>
     <col min="22" max="22" width="18" style="4" customWidth="1"/>
     <col min="23" max="23" width="12" style="4" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
     <col min="25" max="25" width="14" style="4" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="19.5" style="4" customWidth="1"/>
     <col min="27" max="27" width="9" style="4"/>
-    <col min="28" max="28" width="25.7109375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="17.5" style="3" customWidth="1"/>
     <col min="30" max="30" width="13" style="3" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="3" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="14.83203125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="14.5" style="3" customWidth="1"/>
     <col min="34" max="34" width="9" style="3"/>
-    <col min="35" max="35" width="31.5703125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="24.7109375" style="4" customWidth="1"/>
+    <col min="35" max="35" width="31.5" style="3" customWidth="1"/>
+    <col min="36" max="36" width="24.6640625" style="4" customWidth="1"/>
     <col min="37" max="37" width="14" style="4" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="4" customWidth="1"/>
-    <col min="40" max="40" width="19.85546875" style="4" customWidth="1"/>
+    <col min="38" max="38" width="13.5" style="4" customWidth="1"/>
+    <col min="39" max="39" width="14.5" style="4" customWidth="1"/>
+    <col min="40" max="40" width="19.83203125" style="4" customWidth="1"/>
     <col min="41" max="41" width="9" style="4"/>
-    <col min="42" max="42" width="28.42578125" style="4" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="3" customWidth="1"/>
-    <col min="44" max="44" width="13.28515625" style="3" customWidth="1"/>
-    <col min="45" max="45" width="12.5703125" style="3" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" style="3" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="28.5" style="4" customWidth="1"/>
+    <col min="43" max="43" width="18.5" style="3" customWidth="1"/>
+    <col min="44" max="44" width="13.33203125" style="3" customWidth="1"/>
+    <col min="45" max="45" width="12.5" style="3" customWidth="1"/>
+    <col min="46" max="46" width="15.5" style="3" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" style="3" customWidth="1"/>
     <col min="48" max="48" width="9" style="3"/>
-    <col min="49" max="49" width="25.42578125" style="3" customWidth="1"/>
-    <col min="50" max="51" width="24.7109375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="19.5703125" customWidth="1"/>
-    <col min="53" max="53" width="29.140625" customWidth="1"/>
-    <col min="54" max="54" width="25.5703125" customWidth="1"/>
+    <col min="49" max="49" width="25.5" style="3" customWidth="1"/>
+    <col min="50" max="51" width="24.6640625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="19.5" customWidth="1"/>
+    <col min="53" max="53" width="29.1640625" customWidth="1"/>
+    <col min="54" max="54" width="25.5" customWidth="1"/>
     <col min="55" max="55" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:56" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="12" t="s">
+      <c r="X1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="Z1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="AA1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="AB1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AK1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AL1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AN1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AO1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AP1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AW1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX1" s="36" t="s">
+      <c r="AX1" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ1" s="37" t="s">
+      <c r="BA1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="36" t="s">
+      <c r="BB1" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="BB1" s="36" t="s">
-        <v>58</v>
       </c>
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:56" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>24</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="61">
+        <v>45635</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="13">
+        <v>24</v>
+      </c>
+      <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="14">
-        <v>24</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="M2" s="13">
+        <v>7</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>13</v>
+      </c>
+      <c r="R2" s="12">
         <v>1</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="S2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="12">
         <v>7</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>13</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="U2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="12">
         <v>1</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="13">
+      <c r="AG2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="12">
         <v>7</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="14">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="14">
+      <c r="AI2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="13">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="13">
         <v>0</v>
       </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14">
+      <c r="AN2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="13">
         <v>7</v>
       </c>
-      <c r="AB2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="13">
+      <c r="AP2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="12">
         <v>7</v>
       </c>
-      <c r="AF2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH2" s="13">
-        <v>7</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL2" s="14">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO2" s="14">
-        <v>7</v>
-      </c>
-      <c r="AP2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AW2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AR2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS2" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV2" s="13">
-        <v>7</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX2" s="36" t="s">
+      <c r="AX2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY2" s="35">
+        <v>8</v>
+      </c>
+      <c r="AZ2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="36">
-        <v>8</v>
-      </c>
-      <c r="AZ2" s="36" t="s">
+      <c r="BA2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="36" t="s">
+      <c r="BB2" s="35" t="s">
         <v>61</v>
-      </c>
-      <c r="BB2" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:56" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>23</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="61">
+        <v>45636</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="13">
+        <v>10</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="O3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>20</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="V3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="14">
-        <v>10</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="X3" s="13">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="13">
         <v>0</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14">
+      <c r="Z3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="13">
         <v>5.5</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>20</v>
-      </c>
-      <c r="R3" s="13">
+      <c r="AB3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="13">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13">
+        <v>6</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS3" s="12">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="12">
         <v>0</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="14">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH3" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="AI3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL3" s="14">
-        <v>15</v>
-      </c>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14">
-        <v>6</v>
-      </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12">
+        <v>5</v>
+      </c>
+      <c r="AW3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="AQ3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS3" s="13">
-        <v>5</v>
-      </c>
-      <c r="AT3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13">
-        <v>5</v>
-      </c>
-      <c r="AW3" s="13" t="s">
+      <c r="AY3" s="37">
+        <v>7</v>
+      </c>
+      <c r="AZ3" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AX3" s="38" t="s">
+      <c r="BA3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="AY3" s="38">
-        <v>7</v>
-      </c>
-      <c r="AZ3" s="36" t="s">
+      <c r="BB3" s="35" t="s">
         <v>77</v>
-      </c>
-      <c r="BA3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB3" s="36" t="s">
-        <v>79</v>
       </c>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" ht="240" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:56" ht="192" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>23</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="F4" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="13">
+        <v>20</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
+        <v>6</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>21</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="AC4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="14">
-        <v>20</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14">
+      <c r="AE4" s="12">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL4" s="13">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13">
         <v>6</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>21</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="U4" s="13" t="s">
+      <c r="AP4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="14">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AQ4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS4" s="12">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AW4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE4" s="13">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13">
-        <v>7</v>
-      </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AX4" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY4" s="35">
+        <v>10</v>
+      </c>
+      <c r="AZ4" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="AJ4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL4" s="14">
-        <v>10</v>
-      </c>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14">
-        <v>6</v>
-      </c>
-      <c r="AP4" s="14" t="s">
+      <c r="BA4" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AQ4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS4" s="13">
-        <v>10</v>
-      </c>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13">
-        <v>6</v>
-      </c>
-      <c r="AW4" s="13" t="s">
+      <c r="BB4" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="AX4" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY4" s="36">
-        <v>10</v>
-      </c>
-      <c r="AZ4" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA4" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB4" s="39" t="s">
-        <v>107</v>
       </c>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="1:56" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:56" ht="96" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>25</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="61">
+        <v>45637</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="13">
+        <v>40</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="13">
+        <v>3</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="40">
-        <v>45649</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="O5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>12</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>7</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" s="13">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="14">
+      <c r="AC5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="s">
+      <c r="AD5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="14">
+      <c r="AJ5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL5" s="13">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13">
         <v>3</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="AO5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>12</v>
-      </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13">
+      <c r="AQ5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS5" s="12">
+        <v>7</v>
+      </c>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY5" s="35">
         <v>0</v>
       </c>
-      <c r="T5" s="13">
-        <v>7</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="X5" s="14">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE5" s="13">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="13">
-        <v>7</v>
-      </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AZ5" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="AJ5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL5" s="14">
-        <v>19</v>
-      </c>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14">
-        <v>3</v>
-      </c>
-      <c r="AO5" s="14">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="14" t="s">
+      <c r="BA5" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AQ5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS5" s="13">
-        <v>7</v>
-      </c>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="13">
-        <v>6</v>
-      </c>
-      <c r="AW5" s="13" t="s">
+      <c r="BB5" s="35" t="s">
         <v>117</v>
-      </c>
-      <c r="AX5" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA5" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB5" s="36" t="s">
-        <v>121</v>
       </c>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:56" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:56" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>55</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="41">
-        <v>45299</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="F6" s="62">
+        <v>45638</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>28</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" s="12">
+        <v>7</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="13">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14">
+      <c r="AA6" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>13</v>
+      </c>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13">
+        <v>7</v>
+      </c>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>13</v>
+      </c>
+      <c r="AT6" s="12">
         <v>1</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>28</v>
-      </c>
-      <c r="R6" s="13">
-        <v>1</v>
-      </c>
-      <c r="S6" s="13" t="s">
+      <c r="AU6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="T6" s="13">
-        <v>7</v>
-      </c>
-      <c r="U6" s="13" t="s">
+      <c r="AV6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AW6" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="V6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="X6" s="14">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>28</v>
-      </c>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL6" s="14">
-        <v>13</v>
-      </c>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14">
-        <v>7</v>
-      </c>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS6" s="13">
-        <v>13</v>
-      </c>
-      <c r="AT6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV6" s="13">
-        <v>6</v>
-      </c>
-      <c r="AW6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36">
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35">
         <v>8</v>
       </c>
-      <c r="AZ6" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA6" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB6" s="36" t="s">
-        <v>175</v>
+      <c r="AZ6" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA6" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB6" s="35" t="s">
+        <v>171</v>
       </c>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:56" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:56" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="40">
         <v>53</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="63">
+        <v>45639</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42">
+        <v>1</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" s="42">
+        <v>1</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43">
+        <v>1</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T7" s="43">
+        <v>1</v>
+      </c>
+      <c r="U7" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45">
+      <c r="V7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42">
         <v>1</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="Z7" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="45">
+      <c r="AA7" s="42">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43">
         <v>1</v>
       </c>
-      <c r="N7" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46">
+      <c r="AG7" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH7" s="43">
         <v>1</v>
       </c>
-      <c r="S7" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="T7" s="46">
+      <c r="AI7" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL7" s="42">
+        <v>55</v>
+      </c>
+      <c r="AM7" s="42">
         <v>1</v>
       </c>
-      <c r="U7" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="V7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45">
+      <c r="AN7" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO7" s="42">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR7" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS7" s="43">
+        <v>24</v>
+      </c>
+      <c r="AT7" s="43">
         <v>1</v>
       </c>
-      <c r="Z7" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA7" s="45">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC7" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD7" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="46" t="s">
+      <c r="AU7" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="AH7" s="46">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="46" t="s">
+      <c r="AV7" s="43">
+        <v>4</v>
+      </c>
+      <c r="AW7" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="AJ7" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK7" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL7" s="45">
-        <v>55</v>
-      </c>
-      <c r="AM7" s="45">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO7" s="45">
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="33">
         <v>3</v>
       </c>
-      <c r="AP7" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ7" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR7" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS7" s="46">
-        <v>24</v>
-      </c>
-      <c r="AT7" s="46">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV7" s="46">
-        <v>4</v>
-      </c>
-      <c r="AW7" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="34">
-        <v>3</v>
-      </c>
-      <c r="AZ7" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA7" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB7" s="22" t="s">
-        <v>178</v>
+      <c r="AZ7" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA7" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB7" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
     </row>
-    <row r="8" spans="1:56" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="34">
+    <row r="8" spans="1:56" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="33">
         <v>49</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="63">
+        <v>45639</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="13">
+        <v>20</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13">
+        <v>7</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>22</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12">
+        <v>7</v>
+      </c>
+      <c r="U8" s="12"/>
+      <c r="V8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X8" s="13">
+        <v>60</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="48">
-        <v>45665</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="AA8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>240</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS8" s="12">
         <v>20</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14">
-        <v>7</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>22</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13">
-        <v>7</v>
-      </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X8" s="14">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="14">
+      <c r="AT8" s="12">
         <v>1</v>
       </c>
-      <c r="Z8" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="14" t="s">
+      <c r="AU8" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AC8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE8" s="13">
-        <v>43</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH8" s="13">
-        <v>7</v>
-      </c>
-      <c r="AI8" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL8" s="14">
-        <v>240</v>
-      </c>
-      <c r="AM8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS8" s="13">
-        <v>20</v>
-      </c>
-      <c r="AT8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="13" t="s">
+      <c r="AV8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="33">
+        <v>5</v>
+      </c>
+      <c r="AZ8" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="AV8" s="13">
-        <v>4</v>
-      </c>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="43"/>
-      <c r="AY8" s="34">
-        <v>5</v>
-      </c>
-      <c r="AZ8" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="22" t="s">
-        <v>170</v>
+      <c r="BA8" s="33"/>
+      <c r="BB8" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9"/>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
     </row>
-    <row r="10" spans="1:56" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
+    <row r="10" spans="1:56" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
     </row>
-    <row r="11" spans="1:56" ht="61.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:56" ht="49" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="Q11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="S11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="T11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="V11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="W11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="12" t="s">
+      <c r="X11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="Z11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="AA11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="AB11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="AC11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="AD11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y11" s="11" t="s">
+      <c r="AE11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AH11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AI11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AC11" s="12" t="s">
+      <c r="AJ11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="12" t="s">
+      <c r="AK11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AE11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AL11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="12" t="s">
+      <c r="AN11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AH11" s="12" t="s">
+      <c r="AO11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AI11" s="12" t="s">
+      <c r="AP11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AJ11" s="11" t="s">
+      <c r="AQ11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="11" t="s">
+      <c r="AR11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AL11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM11" s="11" t="s">
+      <c r="AS11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AN11" s="11" t="s">
+      <c r="AU11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AO11" s="11" t="s">
+      <c r="AV11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AP11" s="11" t="s">
+      <c r="AW11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AQ11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX11" s="23" t="s">
+      <c r="AX11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AY11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ11" s="28" t="s">
+      <c r="BA11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="BA11" s="23" t="s">
+      <c r="BB11" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="BB11" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
     </row>
-    <row r="12" spans="1:56" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:56" ht="112" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>23</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="F12" s="69">
+        <v>45636</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="13">
+        <v>30</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13">
+        <v>5</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>120</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="12">
+        <v>5</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="AA12" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12">
+        <v>7</v>
+      </c>
+      <c r="AI12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>15</v>
+      </c>
+      <c r="AT12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AU12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="14">
-        <v>30</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14">
-        <v>5</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>120</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="13">
-        <v>5</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="14">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>7</v>
-      </c>
-      <c r="AB12" s="14" t="s">
+      <c r="AV12" s="12">
+        <v>6</v>
+      </c>
+      <c r="AW12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>8</v>
-      </c>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13">
-        <v>7</v>
-      </c>
-      <c r="AI12" s="13" t="s">
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22">
+        <v>6</v>
+      </c>
+      <c r="AZ12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AJ12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL12" s="14">
-        <v>5</v>
-      </c>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO12" s="14">
-        <v>7</v>
-      </c>
-      <c r="AP12" s="14" t="s">
+      <c r="BA12" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>2</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>6</v>
-      </c>
-      <c r="AW12" s="21" t="s">
+      <c r="BB12" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23">
-        <v>6</v>
-      </c>
-      <c r="AZ12" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA12" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB12" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
     </row>
-    <row r="13" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>27</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>95</v>
+      <c r="C13" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>63</v>
+      </c>
+      <c r="F13" s="68">
+        <v>45639</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="6">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="7">
         <v>32</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="7">
-        <v>16</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="R13" s="7">
+        <v>3</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7">
+        <v>5</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="6">
         <v>1</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7">
+      <c r="Z13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH13" s="7">
         <v>6</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="AI13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>32</v>
-      </c>
-      <c r="R13" s="8">
-        <v>3</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8">
+      <c r="AJ13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>7</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>12</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV13" s="7">
         <v>5</v>
       </c>
-      <c r="U13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="X13" s="7">
-        <v>17</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>9</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="8" t="s">
+      <c r="AW13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX13" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>6</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>7</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7">
-        <v>7</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS13" s="8">
-        <v>12</v>
-      </c>
-      <c r="AT13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV13" s="8">
-        <v>5</v>
-      </c>
-      <c r="AW13" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA13" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="BA13" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
     </row>
-    <row r="14" spans="1:56" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3335,25 +3345,25 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="6">
-        <v>45664</v>
+        <v>152</v>
+      </c>
+      <c r="F14" s="68">
+        <v>45640</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J14" s="5">
         <v>13</v>
@@ -3362,19 +3372,19 @@
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="5">
         <v>6</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="2">
         <v>120</v>
@@ -3383,17 +3393,17 @@
         <v>1</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="T14" s="2">
         <v>4</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="X14" s="5">
         <v>5</v>
@@ -3407,10 +3417,10 @@
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AE14" s="2">
         <v>5</v>
@@ -3422,10 +3432,10 @@
       </c>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AL14" s="5">
         <v>4</v>
@@ -3437,10 +3447,10 @@
       </c>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AS14" s="2">
         <v>30</v>
@@ -3453,22 +3463,22 @@
         <v>6</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AY14" s="1">
         <v>6</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="BA14" s="1"/>
       <c r="BB14" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -3476,7 +3486,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="1"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3526,7 +3536,7 @@
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -3534,7 +3544,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -3584,7 +3594,7 @@
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3602,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="1"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -3642,7 +3652,7 @@
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -3650,7 +3660,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -3700,7 +3710,7 @@
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3752,15 +3762,15 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="52"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="35"/>
+      <c r="BB19" s="48"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -3812,174 +3822,174 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="43"/>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="54"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="35"/>
+      <c r="BB20" s="50"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B21" s="1">
         <f>AVERAGE(B2:B10)</f>
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="J21" s="50">
+      <c r="H21" s="46"/>
+      <c r="I21" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="46">
         <f t="shared" ref="J21:AY21" si="0">AVERAGE(J2:J10)</f>
         <v>22.8</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="46">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50">
+      <c r="L21" s="46"/>
+      <c r="M21" s="46">
         <f t="shared" si="0"/>
         <v>4.3571428571428568</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q21" s="49">
+      <c r="N21" s="46"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="45">
         <f t="shared" si="0"/>
         <v>19.333333333333332</v>
       </c>
-      <c r="R21" s="49">
+      <c r="R21" s="45">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49">
+      <c r="S21" s="45"/>
+      <c r="T21" s="45">
         <f t="shared" si="0"/>
         <v>5.4285714285714288</v>
       </c>
-      <c r="U21" s="49"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="X21" s="50">
+      <c r="U21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" s="46">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="Y21" s="50">
+      <c r="Y21" s="46">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50">
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46">
         <f t="shared" si="0"/>
         <v>5.3571428571428568</v>
       </c>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE21" s="49">
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE21" s="45">
         <f t="shared" si="0"/>
         <v>17.666666666666668</v>
       </c>
-      <c r="AF21" s="49">
+      <c r="AF21" s="45">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49">
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL21" s="50">
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL21" s="46">
         <f t="shared" si="0"/>
         <v>51.571428571428569</v>
       </c>
-      <c r="AM21" s="50">
+      <c r="AM21" s="46">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50">
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS21" s="49">
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS21" s="45">
         <f t="shared" si="0"/>
         <v>11.857142857142858</v>
       </c>
-      <c r="AT21" s="49">
+      <c r="AT21" s="45">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="49">
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45">
         <f t="shared" si="0"/>
         <v>5.4285714285714288</v>
       </c>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="32">
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31">
         <f t="shared" si="0"/>
         <v>5.8571428571428568</v>
       </c>
-      <c r="AZ21" s="32"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="56"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="52"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B12:B20)</f>
         <v>25.666666666666668</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J22" s="5">
         <f>AVERAGE(J12:J20)</f>
@@ -3997,7 +4007,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="1"/>
@@ -4015,7 +4025,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="X22" s="5">
         <f t="shared" si="1"/>
@@ -4033,7 +4043,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AE22" s="2">
         <f t="shared" si="1"/>
@@ -4051,7 +4061,7 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AL22" s="5">
         <f t="shared" si="1"/>
@@ -4069,7 +4079,7 @@
       <c r="AP22" s="5"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AS22" s="2">
         <f t="shared" si="1"/>
@@ -4084,19 +4094,19 @@
         <f t="shared" si="1"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57">
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AZ22" s="58"/>
-      <c r="BA22" s="32"/>
-      <c r="BB22" s="59"/>
+      <c r="AZ22" s="54"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="55"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -4105,19 +4115,19 @@
         <v>32.9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J23" s="5">
         <f>AVERAGE(J2:J20)</f>
@@ -4135,7 +4145,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="2"/>
@@ -4153,7 +4163,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="X23" s="5">
         <f t="shared" si="2"/>
@@ -4171,7 +4181,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" si="2"/>
@@ -4189,7 +4199,7 @@
       <c r="AI23" s="2"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AL23" s="5">
         <f t="shared" si="2"/>
@@ -4207,7 +4217,7 @@
       <c r="AP23" s="5"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AS23" s="2">
         <f t="shared" si="2"/>
@@ -4222,19 +4232,19 @@
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32">
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31">
         <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="60"/>
-      <c r="BB23" s="55"/>
+      <c r="AZ23" s="31"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="51"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4283,16 +4293,16 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="32"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="61"/>
-      <c r="BA24" s="62"/>
-      <c r="BB24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="58"/>
+      <c r="BB24" s="31"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4341,16 +4351,16 @@
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
-      <c r="AW25" s="33"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="43"/>
-      <c r="BB25" s="22"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="59"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="40"/>
+      <c r="BB25" s="21"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -4402,15 +4412,15 @@
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
+      <c r="AX26" s="35"/>
+      <c r="AY26" s="35"/>
+      <c r="AZ26" s="35"/>
+      <c r="BA26" s="35"/>
+      <c r="BB26" s="35"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4466,7 +4476,7 @@
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4522,7 +4532,7 @@
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4578,7 +4588,7 @@
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4634,7 +4644,7 @@
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4690,7 +4700,7 @@
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4746,7 +4756,7 @@
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4802,7 +4812,7 @@
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4858,7 +4868,7 @@
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4914,7 +4924,7 @@
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4970,7 +4980,7 @@
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5026,7 +5036,7 @@
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5082,7 +5092,7 @@
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5138,7 +5148,7 @@
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5194,7 +5204,7 @@
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5250,7 +5260,7 @@
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5306,7 +5316,7 @@
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5362,7 +5372,7 @@
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5418,7 +5428,7 @@
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5474,7 +5484,7 @@
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5530,7 +5540,7 @@
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5586,7 +5596,7 @@
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5642,7 +5652,7 @@
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5698,7 +5708,7 @@
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5754,7 +5764,7 @@
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5810,7 +5820,7 @@
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
     </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5866,7 +5876,7 @@
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
     </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
   </sheetData>

--- a/analiza_uporabniskega_AB_testiranja.xlsx
+++ b/analiza_uporabniskega_AB_testiranja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anapoklukar/Desktop/kcr_project/KCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\KCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE16623-619F-AC4B-880C-5AFF6FE3E6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE914ED4-B7DD-4E9A-B1FB-D645B0455F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="222">
   <si>
     <t>test 1</t>
   </si>
@@ -619,18 +619,110 @@
   </si>
   <si>
     <t>0,28 Š</t>
+  </si>
+  <si>
+    <t>TESTI X</t>
+  </si>
+  <si>
+    <t>11.1.2025 ob 10:00</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Uporabnik rangira dobavitelje po kakovosti.</t>
+  </si>
+  <si>
+    <t>Zelo hitro je razumel nalogo.</t>
+  </si>
+  <si>
+    <t>1 napaka - sprva primerjal napačne dobavitelje</t>
+  </si>
+  <si>
+    <t>Komentar: "Seznam je videti malce preveč natrpan."</t>
+  </si>
+  <si>
+    <t>Brez težav opravil nalogo.</t>
+  </si>
+  <si>
+    <t>Dodal: "Prejšnja naročila so lepo razvrščena."</t>
+  </si>
+  <si>
+    <t>Brez pripomb.</t>
+  </si>
+  <si>
+    <t>1 napaka - pozabil potrditi spremembe</t>
+  </si>
+  <si>
+    <t>Po razlagi hitro razumel napako.</t>
+  </si>
+  <si>
+    <t>Dober dizajn in jasno postavljene funkcionalnosti.</t>
+  </si>
+  <si>
+    <t>Nekatera besedila so premajhna.</t>
+  </si>
+  <si>
+    <t>Povečanje velikosti pisave na določenih mestih.</t>
+  </si>
+  <si>
+    <t>Preko spleta</t>
+  </si>
+  <si>
+    <t>11.1.2025 ob 14:00</t>
+  </si>
+  <si>
+    <t>Komentar: "Vse je logično postavljeno."</t>
+  </si>
+  <si>
+    <t>2 napaki - napačno razvrstil stolpce in zgrešil primerjalno funkcijo</t>
+  </si>
+  <si>
+    <t>Dodal: "Potreboval bi več vizualnih namigov."</t>
+  </si>
+  <si>
+    <t>Izpostavil: "Zelo mi je všeč, da so prejšnja naročila razvrščena po datumu."</t>
+  </si>
+  <si>
+    <t>1 napaka - sprva odprl napačen men</t>
+  </si>
+  <si>
+    <t>2 napaki - napačno označil pravice in ni shranil sprememb</t>
+  </si>
+  <si>
+    <t>Bil rahlo razdražen zaradi dolgega postopka.</t>
+  </si>
+  <si>
+    <t>Lep in pregleden uporabniški vmesnik.</t>
+  </si>
+  <si>
+    <t>Nekateri procesi so nepotrebno zapleteni.</t>
+  </si>
+  <si>
+    <t>Bolj vidni in jasni gumbi za ključne funkcije.</t>
+  </si>
+  <si>
+    <t>X POVPREČJE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -983,13 +1075,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -998,81 +1090,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1081,55 +1173,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1138,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1147,12 +1239,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1439,71 +1537,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD53"/>
+  <dimension ref="A1:BD57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="3" customWidth="1"/>
     <col min="18" max="18" width="16" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="9" style="3"/>
-    <col min="21" max="21" width="47.1640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="47.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="18" style="4" customWidth="1"/>
     <col min="23" max="23" width="12" style="4" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="4" customWidth="1"/>
     <col min="25" max="25" width="14" style="4" customWidth="1"/>
-    <col min="26" max="26" width="19.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="4" customWidth="1"/>
     <col min="27" max="27" width="9" style="4"/>
-    <col min="28" max="28" width="25.6640625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="17.5" style="3" customWidth="1"/>
+    <col min="28" max="28" width="25.7109375" style="4" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" style="3" customWidth="1"/>
     <col min="30" max="30" width="13" style="3" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="14.5" style="3" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="3" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="3" customWidth="1"/>
     <col min="34" max="34" width="9" style="3"/>
-    <col min="35" max="35" width="31.5" style="3" customWidth="1"/>
-    <col min="36" max="36" width="24.6640625" style="4" customWidth="1"/>
+    <col min="35" max="35" width="31.42578125" style="3" customWidth="1"/>
+    <col min="36" max="36" width="24.7109375" style="4" customWidth="1"/>
     <col min="37" max="37" width="14" style="4" customWidth="1"/>
-    <col min="38" max="38" width="13.5" style="4" customWidth="1"/>
-    <col min="39" max="39" width="14.5" style="4" customWidth="1"/>
-    <col min="40" max="40" width="19.83203125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="4" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" style="4" customWidth="1"/>
     <col min="41" max="41" width="9" style="4"/>
-    <col min="42" max="42" width="28.5" style="4" customWidth="1"/>
-    <col min="43" max="43" width="18.5" style="3" customWidth="1"/>
-    <col min="44" max="44" width="13.33203125" style="3" customWidth="1"/>
-    <col min="45" max="45" width="12.5" style="3" customWidth="1"/>
-    <col min="46" max="46" width="15.5" style="3" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="28.42578125" style="4" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="3" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" style="3" customWidth="1"/>
+    <col min="46" max="46" width="15.42578125" style="3" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" style="3" customWidth="1"/>
     <col min="48" max="48" width="9" style="3"/>
-    <col min="49" max="49" width="25.5" style="3" customWidth="1"/>
-    <col min="50" max="51" width="24.6640625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="19.5" customWidth="1"/>
-    <col min="53" max="53" width="29.1640625" customWidth="1"/>
-    <col min="54" max="54" width="25.5" customWidth="1"/>
+    <col min="49" max="49" width="25.42578125" style="3" customWidth="1"/>
+    <col min="50" max="51" width="24.7109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="19.42578125" customWidth="1"/>
+    <col min="53" max="53" width="29.140625" customWidth="1"/>
+    <col min="54" max="54" width="25.42578125" customWidth="1"/>
     <col min="55" max="55" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>163</v>
       </c>
@@ -1669,7 +1767,7 @@
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1931,7 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -1944,7 +2042,9 @@
       <c r="AL3" s="13">
         <v>15</v>
       </c>
-      <c r="AM3" s="13"/>
+      <c r="AM3" s="70">
+        <v>0</v>
+      </c>
       <c r="AN3" s="13"/>
       <c r="AO3" s="13">
         <v>6</v>
@@ -1989,7 +2089,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" ht="192" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
@@ -2073,7 +2173,9 @@
       <c r="AE4" s="12">
         <v>5</v>
       </c>
-      <c r="AF4" s="12"/>
+      <c r="AF4" s="12">
+        <v>0</v>
+      </c>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12">
         <v>7</v>
@@ -2090,7 +2192,9 @@
       <c r="AL4" s="13">
         <v>10</v>
       </c>
-      <c r="AM4" s="13"/>
+      <c r="AM4" s="70">
+        <v>0</v>
+      </c>
       <c r="AN4" s="13"/>
       <c r="AO4" s="13">
         <v>6</v>
@@ -2133,7 +2237,7 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="1:56" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +2327,9 @@
       <c r="AE5" s="12">
         <v>5</v>
       </c>
-      <c r="AF5" s="12"/>
+      <c r="AF5" s="12">
+        <v>0</v>
+      </c>
       <c r="AG5" s="12">
         <v>0</v>
       </c>
@@ -2242,7 +2348,9 @@
       <c r="AL5" s="13">
         <v>19</v>
       </c>
-      <c r="AM5" s="13"/>
+      <c r="AM5" s="13">
+        <v>0</v>
+      </c>
       <c r="AN5" s="13">
         <v>3</v>
       </c>
@@ -2289,7 +2397,7 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:56" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2487,9 @@
       <c r="AE6" s="12">
         <v>28</v>
       </c>
-      <c r="AF6" s="12"/>
+      <c r="AF6" s="12">
+        <v>0</v>
+      </c>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12">
         <v>5</v>
@@ -2396,7 +2506,9 @@
       <c r="AL6" s="13">
         <v>13</v>
       </c>
-      <c r="AM6" s="13"/>
+      <c r="AM6" s="13">
+        <v>0</v>
+      </c>
       <c r="AN6" s="13"/>
       <c r="AO6" s="13">
         <v>7</v>
@@ -2439,7 +2551,7 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:56" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
@@ -2595,7 +2707,7 @@
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
     </row>
-    <row r="8" spans="1:56" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>164</v>
       </c>
@@ -2741,7 +2853,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2799,7 +2911,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
     </row>
-    <row r="10" spans="1:56" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2857,7 +2969,7 @@
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
     </row>
-    <row r="11" spans="1:56" ht="49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>162</v>
       </c>
@@ -3023,7 +3135,7 @@
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
     </row>
-    <row r="12" spans="1:56" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>6</v>
       </c>
@@ -3113,7 +3225,9 @@
       <c r="AE12" s="12">
         <v>8</v>
       </c>
-      <c r="AF12" s="12"/>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12">
         <v>7</v>
@@ -3177,7 +3291,7 @@
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
     </row>
-    <row r="13" spans="1:56" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3337,7 +3451,7 @@
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
     </row>
-    <row r="14" spans="1:56" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3425,7 +3539,9 @@
       <c r="AE14" s="2">
         <v>5</v>
       </c>
-      <c r="AF14" s="2"/>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2">
         <v>7</v>
@@ -3440,7 +3556,9 @@
       <c r="AL14" s="5">
         <v>4</v>
       </c>
-      <c r="AM14" s="5"/>
+      <c r="AM14" s="5">
+        <v>0</v>
+      </c>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5">
         <v>7</v>
@@ -3478,11 +3596,8 @@
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
     </row>
-    <row r="15" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3529,22 +3644,19 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
+      <c r="AW15" s="32"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
     </row>
-    <row r="16" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="67"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -3587,198 +3699,494 @@
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="AW16" s="32"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
     </row>
-    <row r="17" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
+    <row r="17" spans="1:56" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB17" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
     </row>
-    <row r="18" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="5">
+        <v>6</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <v>7</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="T18" s="2">
+        <v>5</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X18" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
+      <c r="AA18" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
+      <c r="AH18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>7</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0</v>
+      </c>
       <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
+      <c r="AO18" s="5">
+        <v>6</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
     </row>
-    <row r="19" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="5">
+        <v>7</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="M19" s="5">
+        <v>6</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>18</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T19" s="2">
+        <v>3</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X19" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="AA19" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="48"/>
+      <c r="AH19" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>5</v>
+      </c>
+      <c r="AP19" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
     </row>
-    <row r="20" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="1"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -3822,547 +4230,469 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="49"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="35"/>
-      <c r="BB20" s="50"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
     </row>
-    <row r="21" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="1">
-        <f>AVERAGE(B2:B10)</f>
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="46">
-        <f t="shared" ref="J21:AY21" si="0">AVERAGE(J2:J10)</f>
-        <v>22.8</v>
-      </c>
-      <c r="K21" s="46">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46">
-        <f t="shared" si="0"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="45">
-        <f t="shared" si="0"/>
-        <v>19.333333333333332</v>
-      </c>
-      <c r="R21" s="45">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45">
-        <f t="shared" si="0"/>
-        <v>5.4285714285714288</v>
-      </c>
-      <c r="U21" s="45"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="X21" s="46">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="Y21" s="46">
-        <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428568</v>
-      </c>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE21" s="45">
-        <f t="shared" si="0"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="AF21" s="45">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL21" s="46">
-        <f t="shared" si="0"/>
-        <v>51.571428571428569</v>
-      </c>
-      <c r="AM21" s="46">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46">
-        <f t="shared" si="0"/>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS21" s="45">
-        <f t="shared" si="0"/>
-        <v>11.857142857142858</v>
-      </c>
-      <c r="AT21" s="45">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45">
-        <f t="shared" si="0"/>
-        <v>5.4285714285714288</v>
-      </c>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31">
-        <f t="shared" si="0"/>
-        <v>5.8571428571428568</v>
-      </c>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="52"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
     </row>
-    <row r="22" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="1">
-        <f>AVERAGE(B12:B20)</f>
-        <v>25.666666666666668</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" s="5">
-        <f>AVERAGE(J12:J20)</f>
-        <v>19.666666666666668</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" ref="K22:AY22" si="1">AVERAGE(K12:K20)</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5">
-        <f t="shared" si="1"/>
-        <v>5.666666666666667</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="1"/>
-        <v>90.666666666666671</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
+      <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="X22" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y22" s="5">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5">
-        <f t="shared" si="1"/>
-        <v>5.666666666666667</v>
-      </c>
+      <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE22" s="2">
-        <f t="shared" si="1"/>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="AF22" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL22" s="5">
-        <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AM22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
-      <c r="AO22" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
+      <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="2"/>
-      <c r="AR22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS22" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AT22" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
-      <c r="AV22" s="2">
-        <f t="shared" si="1"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AW22" s="32"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AZ22" s="54"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="55"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="47"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="48"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
     </row>
-    <row r="23" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <f>AVERAGE(B2:B20)</f>
-        <v>32.9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="5">
-        <f>AVERAGE(J2:J20)</f>
-        <v>21.625</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" ref="K23:AY23" si="2">AVERAGE(K2:K20)</f>
-        <v>0.5714285714285714</v>
-      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" si="2"/>
-        <v>43.111111111111114</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
-      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
-      </c>
+      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="X23" s="5">
-        <f t="shared" si="2"/>
-        <v>16.333333333333332</v>
-      </c>
-      <c r="Y23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="5">
-        <f t="shared" si="2"/>
-        <v>5.45</v>
-      </c>
+      <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE23" s="2">
-        <f t="shared" si="2"/>
-        <v>14.222222222222221</v>
-      </c>
-      <c r="AF23" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2">
-        <f t="shared" si="2"/>
-        <v>5.85</v>
-      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="5"/>
-      <c r="AK23" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL23" s="5">
-        <f t="shared" si="2"/>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="AM23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
-      <c r="AO23" s="5">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
+      <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
       <c r="AQ23" s="2"/>
-      <c r="AR23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS23" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AT23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
-      <c r="AV23" s="2">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31">
-        <f t="shared" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="AZ23" s="31"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="51"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="50"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="1">
+        <f>AVERAGE(B2:B10)</f>
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="32"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="46">
+        <f t="shared" ref="J24:AY24" si="0">AVERAGE(J2:J10)</f>
+        <v>22.8</v>
+      </c>
+      <c r="K24" s="46">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46">
+        <f t="shared" si="0"/>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="N24" s="46"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="45">
+        <f t="shared" si="0"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="R24" s="45">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45">
+        <f t="shared" si="0"/>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="U24" s="45"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="X24" s="46">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="Y24" s="46">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46">
+        <f t="shared" si="0"/>
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE24" s="45">
+        <f t="shared" si="0"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="AF24" s="45">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL24" s="46">
+        <f t="shared" si="0"/>
+        <v>51.571428571428569</v>
+      </c>
+      <c r="AM24" s="46">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46">
+        <f t="shared" si="0"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS24" s="45">
+        <f t="shared" si="0"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="AT24" s="45">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45">
+        <f t="shared" si="0"/>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="AW24" s="45"/>
       <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="58"/>
-      <c r="BB24" s="31"/>
+      <c r="AY24" s="31">
+        <f t="shared" si="0"/>
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="AZ24" s="31"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="52"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="1">
+        <f>AVERAGE(B12:B23)</f>
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="5">
+        <f>AVERAGE(J12:J23)</f>
+        <v>14.4</v>
+      </c>
+      <c r="K25" s="5">
+        <f>AVERAGE(K12:K23)</f>
+        <v>0.4</v>
+      </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5">
+        <f t="shared" ref="K25:AY25" si="1">AVERAGE(M12:M23)</f>
+        <v>6</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="1"/>
+        <v>60.4</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="T25" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
+      <c r="W25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X25" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Y25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="AA25" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
+      <c r="AD25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
       <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
+      <c r="AH25" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
+      <c r="AK25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL25" s="5">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="AM25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
+      <c r="AO25" s="5">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
+      <c r="AR25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" si="1"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AT25" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
       <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
+      <c r="AV25" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
       <c r="AW25" s="32"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="22"/>
-      <c r="BA25" s="40"/>
-      <c r="BB25" s="21"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="55"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
     </row>
-    <row r="26" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4411,72 +4741,154 @@
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="35"/>
-      <c r="AY26" s="35"/>
-      <c r="AZ26" s="35"/>
-      <c r="BA26" s="35"/>
-      <c r="BB26" s="35"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="71"/>
+      <c r="BB26" s="52"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1">
+        <f>AVERAGE(B2:B23)</f>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="5">
+        <f>AVERAGE(J2:J23)</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" ref="K27:AY27" si="2">AVERAGE(K2:K23)</f>
+        <v>0.44444444444444442</v>
+      </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>5.041666666666667</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
       <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="T27" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="U27" s="2"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
+      <c r="W27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="X27" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Y27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
+      <c r="AA27" s="5">
+        <f t="shared" si="2"/>
+        <v>5.541666666666667</v>
+      </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="AD27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" si="2"/>
+        <v>13.363636363636363</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="2">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
+      <c r="AK27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL27" s="5">
+        <f t="shared" si="2"/>
+        <v>32.75</v>
+      </c>
+      <c r="AM27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
       <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
+      <c r="AO27" s="5">
+        <f t="shared" si="2"/>
+        <v>5.666666666666667</v>
+      </c>
       <c r="AP27" s="5"/>
       <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
+      <c r="AR27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS27" s="2">
+        <f t="shared" si="2"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="AT27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
       <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
+      <c r="AV27" s="2">
+        <f t="shared" si="2"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31">
+        <f t="shared" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="51"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4525,14 +4937,16 @@
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="58"/>
+      <c r="BB28" s="31"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4581,15 +4995,19 @@
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="40"/>
+      <c r="BB29" s="21"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4638,13 +5056,15 @@
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
+      <c r="AX30" s="35"/>
+      <c r="AY30" s="35"/>
+      <c r="AZ30" s="35"/>
+      <c r="BA30" s="35"/>
+      <c r="BB30" s="35"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4700,7 +5120,7 @@
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4756,7 +5176,7 @@
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4812,7 +5232,7 @@
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4868,7 +5288,7 @@
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4924,7 +5344,7 @@
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4980,7 +5400,7 @@
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5036,7 +5456,7 @@
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5092,7 +5512,7 @@
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5148,7 +5568,7 @@
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5204,7 +5624,7 @@
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5260,7 +5680,7 @@
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5316,7 +5736,7 @@
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5372,7 +5792,7 @@
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5428,7 +5848,7 @@
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5484,7 +5904,7 @@
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5540,7 +5960,7 @@
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5596,7 +6016,7 @@
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5652,7 +6072,7 @@
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5708,7 +6128,7 @@
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5764,7 +6184,7 @@
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5820,7 +6240,7 @@
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
     </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5876,11 +6296,235 @@
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
     </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2"/>
+      <c r="AW55" s="2"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/analiza_uporabniskega_AB_testiranja.xlsx
+++ b/analiza_uporabniskega_AB_testiranja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\KCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE914ED4-B7DD-4E9A-B1FB-D645B0455F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1304B98-4032-4168-A374-2A9637004772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="238">
   <si>
     <t>test 1</t>
   </si>
@@ -570,24 +570,6 @@
     <t>A POVPREČJE</t>
   </si>
   <si>
-    <t>0,3 Š</t>
-  </si>
-  <si>
-    <t>0,7 NE</t>
-  </si>
-  <si>
-    <t>0,7 ŽIVO</t>
-  </si>
-  <si>
-    <t>0,8 DA</t>
-  </si>
-  <si>
-    <t>0,7 DA</t>
-  </si>
-  <si>
-    <t>0,9 DA</t>
-  </si>
-  <si>
     <t>0,85 NE</t>
   </si>
   <si>
@@ -703,13 +685,79 @@
   </si>
   <si>
     <t>X POVPREČJE</t>
+  </si>
+  <si>
+    <t>Ni opazil gumba takoj</t>
+  </si>
+  <si>
+    <t>Brez problemov</t>
+  </si>
+  <si>
+    <t>Klikal na primerjaj, ni vedel zakaj so kvadratki, potem na dobavitelja. Ni mu bilo všeč ker je rabil pritisniti direktno na dobavitelja</t>
+  </si>
+  <si>
+    <t>Najprej je kliknil na primerjavo</t>
+  </si>
+  <si>
+    <t>Nekaj čas arazmišljal potem kliknil na kvadratek za primerjavo in nato pravilno</t>
+  </si>
+  <si>
+    <t>Najprej malo pogledal naokoli nikamor kliknil in nato na dobavitelja naročila</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>Enostavnost za uporabo razen naloga2 naloga.</t>
+  </si>
+  <si>
+    <t>Gumb primerjaj, da bi najprej kliknil primerjaj desno zgoraj in potem označil dobavitelje namesto posamezne kvadrate pred dobavitelji.</t>
+  </si>
+  <si>
+    <t>0,25 Š</t>
+  </si>
+  <si>
+    <t>0,75 Š</t>
+  </si>
+  <si>
+    <t>0,5 ŽIVO</t>
+  </si>
+  <si>
+    <t>0,75 DA</t>
+  </si>
+  <si>
+    <t>0,5 DA</t>
+  </si>
+  <si>
+    <t>0.35 Š</t>
+  </si>
+  <si>
+    <t>0.78 NE</t>
+  </si>
+  <si>
+    <t>0.64 ŽIVO</t>
+  </si>
+  <si>
+    <t>0.855 DA</t>
+  </si>
+  <si>
+    <t>0.781 DA</t>
+  </si>
+  <si>
+    <t>0.782 DA</t>
+  </si>
+  <si>
+    <t>0.925 DA</t>
+  </si>
+  <si>
+    <t>0.857 DA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +811,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -790,7 +847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1049,11 +1106,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1167,12 +1261,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1192,9 +1280,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,7 +1330,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,7 +1656,7 @@
   <dimension ref="A1:BD57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,21 +1680,21 @@
     <col min="17" max="17" width="13.7109375" style="3" customWidth="1"/>
     <col min="18" max="18" width="16" style="3" customWidth="1"/>
     <col min="19" max="19" width="19.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9" style="3"/>
+    <col min="20" max="20" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="47.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="18" style="4" customWidth="1"/>
     <col min="23" max="23" width="12" style="4" customWidth="1"/>
     <col min="24" max="24" width="13.42578125" style="4" customWidth="1"/>
     <col min="25" max="25" width="14" style="4" customWidth="1"/>
     <col min="26" max="26" width="19.42578125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9" style="4"/>
+    <col min="27" max="27" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="25.7109375" style="4" customWidth="1"/>
     <col min="29" max="29" width="17.42578125" style="3" customWidth="1"/>
     <col min="30" max="30" width="13" style="3" customWidth="1"/>
     <col min="31" max="31" width="13.42578125" style="3" customWidth="1"/>
     <col min="32" max="32" width="14.85546875" style="3" customWidth="1"/>
     <col min="33" max="33" width="14.42578125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="9" style="3"/>
+    <col min="34" max="34" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="31.42578125" style="3" customWidth="1"/>
     <col min="36" max="36" width="24.7109375" style="4" customWidth="1"/>
     <col min="37" max="37" width="14" style="4" customWidth="1"/>
@@ -1783,7 +1899,7 @@
       <c r="E2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="58">
         <v>45635</v>
       </c>
       <c r="G2" s="35" t="s">
@@ -1947,7 +2063,7 @@
       <c r="E3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="58">
         <v>45636</v>
       </c>
       <c r="G3" s="35" t="s">
@@ -2042,7 +2158,7 @@
       <c r="AL3" s="13">
         <v>15</v>
       </c>
-      <c r="AM3" s="70">
+      <c r="AM3" s="67">
         <v>0</v>
       </c>
       <c r="AN3" s="13"/>
@@ -2105,7 +2221,7 @@
       <c r="E4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G4" s="35" t="s">
@@ -2192,7 +2308,7 @@
       <c r="AL4" s="13">
         <v>10</v>
       </c>
-      <c r="AM4" s="70">
+      <c r="AM4" s="67">
         <v>0</v>
       </c>
       <c r="AN4" s="13"/>
@@ -2253,7 +2369,7 @@
       <c r="E5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="58">
         <v>45637</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -2413,7 +2529,7 @@
       <c r="E6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="59">
         <v>45638</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -2567,7 +2683,7 @@
       <c r="E7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="60">
         <v>45639</v>
       </c>
       <c r="G7" s="21" t="s">
@@ -2723,7 +2839,7 @@
       <c r="E8" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="60">
         <v>45639</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -2859,7 +2975,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="64"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2917,7 +3033,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="65"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="19"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2985,7 +3101,7 @@
       <c r="E11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="63" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -3151,7 +3267,7 @@
       <c r="E12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="66">
         <v>45636</v>
       </c>
       <c r="G12" s="21" t="s">
@@ -3307,7 +3423,7 @@
       <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <v>45639</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -3467,7 +3583,7 @@
       <c r="E14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="65">
         <v>45640</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3601,7 +3717,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="68"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="1"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3656,7 +3772,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="68"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -3708,7 +3824,7 @@
     </row>
     <row r="17" spans="1:56" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>15</v>
@@ -3722,7 +3838,7 @@
       <c r="E17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="63" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -3888,14 +4004,14 @@
       <c r="E18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="68" t="s">
-        <v>195</v>
+      <c r="F18" s="65" t="s">
+        <v>189</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>106</v>
@@ -3911,7 +4027,7 @@
         <v>7</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>35</v>
@@ -3926,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="T18" s="2">
         <v>5</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>38</v>
@@ -3951,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>40</v>
@@ -3970,7 +4086,7 @@
         <v>6</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>49</v>
@@ -3989,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="AP18" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AQ18" s="2" t="s">
         <v>52</v>
@@ -4004,22 +4120,22 @@
         <v>1</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AV18" s="2">
         <v>4</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AZ18" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
@@ -4038,16 +4154,16 @@
         <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>210</v>
+        <v>203</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>204</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>106</v>
@@ -4063,7 +4179,7 @@
         <v>6</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>35</v>
@@ -4078,13 +4194,13 @@
         <v>2</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T19" s="2">
         <v>3</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>38</v>
@@ -4103,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AC19" s="2" t="s">
         <v>40</v>
@@ -4122,7 +4238,7 @@
         <v>6</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>49</v>
@@ -4137,13 +4253,13 @@
         <v>1</v>
       </c>
       <c r="AN19" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AO19" s="5">
         <v>5</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AQ19" s="2" t="s">
         <v>52</v>
@@ -4158,77 +4274,151 @@
         <v>2</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AV19" s="2">
         <v>3</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AZ19" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="B20" s="1">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="65">
+        <v>45668</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="5">
+        <v>7</v>
+      </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>10</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+      <c r="T20" s="2">
+        <v>6</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X20" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
+      <c r="AA20" s="5">
+        <v>6</v>
+      </c>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="AC20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="2">
+        <v>6</v>
+      </c>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
+      <c r="AJ20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>0</v>
+      </c>
       <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
+      <c r="AO20" s="5">
+        <v>6</v>
+      </c>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
+      <c r="AQ20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
       <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
+      <c r="AV20" s="2">
+        <v>6</v>
+      </c>
       <c r="AW20" s="2"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
@@ -4236,61 +4426,156 @@
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="B21" s="1">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="68">
+        <v>45668</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="5">
+        <v>16</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="M21" s="5">
+        <v>7</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>22</v>
+      </c>
+      <c r="R21" s="2">
+        <v>4</v>
+      </c>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
+      <c r="T21" s="2">
+        <v>7</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X21" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
+      <c r="AH21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>18</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>0</v>
+      </c>
       <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
+      <c r="AO21" s="5">
+        <v>7</v>
+      </c>
+      <c r="AP21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>12</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
       <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
+      <c r="AV21" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
     </row>
@@ -4346,11 +4631,11 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="AX22" s="47"/>
+      <c r="AX22" s="45"/>
       <c r="AY22" s="35"/>
       <c r="AZ22" s="35"/>
       <c r="BA22" s="35"/>
-      <c r="BB22" s="48"/>
+      <c r="BB22" s="46"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
     </row>
@@ -4364,527 +4649,605 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="40"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="69"/>
+      <c r="AN23" s="69"/>
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="70"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="71"/>
+      <c r="AY23" s="72"/>
       <c r="AZ23" s="26"/>
       <c r="BA23" s="35"/>
-      <c r="BB23" s="50"/>
+      <c r="BB23" s="48"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="75">
         <f>AVERAGE(B2:B10)</f>
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="46">
+      <c r="C24" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="76">
         <f t="shared" ref="J24:AY24" si="0">AVERAGE(J2:J10)</f>
         <v>22.8</v>
       </c>
-      <c r="K24" s="46">
-        <f t="shared" si="0"/>
+      <c r="K24" s="76">
+        <f>AVERAGE(K2:K10)</f>
         <v>0.5</v>
       </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46">
+      <c r="L24" s="76"/>
+      <c r="M24" s="76">
         <f t="shared" si="0"/>
         <v>4.3571428571428568</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="45">
+      <c r="N24" s="76"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q24" s="77">
         <f t="shared" si="0"/>
         <v>19.333333333333332</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="77">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45">
+      <c r="S24" s="77"/>
+      <c r="T24" s="77">
         <f t="shared" si="0"/>
         <v>5.4285714285714288</v>
       </c>
-      <c r="U24" s="45"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="X24" s="46">
+      <c r="U24" s="77"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="X24" s="76">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="Y24" s="46">
+      <c r="Y24" s="76">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46">
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76">
         <f t="shared" si="0"/>
         <v>5.3571428571428568</v>
       </c>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE24" s="45">
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE24" s="77">
         <f t="shared" si="0"/>
         <v>17.666666666666668</v>
       </c>
-      <c r="AF24" s="45">
+      <c r="AF24" s="77">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45">
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL24" s="46">
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL24" s="76">
         <f t="shared" si="0"/>
         <v>51.571428571428569</v>
       </c>
-      <c r="AM24" s="46">
+      <c r="AM24" s="76">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46">
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS24" s="45">
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS24" s="77">
         <f t="shared" si="0"/>
         <v>11.857142857142858</v>
       </c>
-      <c r="AT24" s="45">
+      <c r="AT24" s="77">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45">
+      <c r="AU24" s="77"/>
+      <c r="AV24" s="77">
         <f t="shared" si="0"/>
         <v>5.4285714285714288</v>
       </c>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31">
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="78"/>
+      <c r="AY24" s="78">
         <f t="shared" si="0"/>
         <v>5.8571428571428568</v>
       </c>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="51"/>
-      <c r="BB24" s="52"/>
+      <c r="AZ24" s="52"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="50"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="1">
-        <f>AVERAGE(B12:B23)</f>
-        <v>28</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="5">
-        <f>AVERAGE(J12:J23)</f>
-        <v>14.4</v>
-      </c>
-      <c r="K25" s="5">
-        <f>AVERAGE(K12:K23)</f>
-        <v>0.4</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5">
-        <f t="shared" ref="K25:AY25" si="1">AVERAGE(M12:M23)</f>
-        <v>6</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="B25" s="75">
+        <f>AVERAGE(B12:B14)</f>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="76">
+        <f>AVERAGE(J12:J14)</f>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="K25" s="76">
+        <f>AVERAGE(K12:K14)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76">
+        <f>AVERAGE(M12:M14)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="N25" s="76"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="77">
+        <f>AVERAGE(Q12:Q14)</f>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="R25" s="77">
+        <f>AVERAGE(R12:R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77">
+        <f>AVERAGE(T12:T14)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="U25" s="77"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="X25" s="76">
+        <f>AVERAGE(X12:X14)</f>
+        <v>14</v>
+      </c>
+      <c r="Y25" s="76">
+        <f>AVERAGE(Y12:Y14)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76">
+        <f>AVERAGE(AA12:AA14)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE25" s="77">
+        <f>AVERAGE(AE12:AE14)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AF25" s="77">
+        <f>AVERAGE(AF12:AF14)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="77">
+        <f>AVERAGE(AH12:AH14)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL25" s="76">
+        <f>AVERAGE(AL12:AL14)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AM25" s="76">
+        <f>AVERAGE(AM12:AM14)</f>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76">
+        <f t="shared" ref="AN25:AY25" si="1">AVERAGE(AO12:AO14)</f>
+        <v>7</v>
+      </c>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS25" s="77">
         <f t="shared" si="1"/>
-        <v>60.4</v>
-      </c>
-      <c r="R25" s="2">
+        <v>19</v>
+      </c>
+      <c r="AT25" s="77">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="77"/>
+      <c r="AV25" s="77">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="X25" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Y25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8</v>
-      </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE25" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL25" s="5">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="AM25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS25" s="2">
-        <f t="shared" si="1"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AT25" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2">
-        <f t="shared" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="AW25" s="32"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="79">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AZ25" s="54"/>
       <c r="BA25" s="31"/>
-      <c r="BB25" s="55"/>
+      <c r="BB25" s="52"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="53"/>
+      <c r="A26" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="75">
+        <f>AVERAGE(B18:B21)</f>
+        <v>28.25</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="76">
+        <f>AVERAGE(J18:J21)</f>
+        <v>8.5</v>
+      </c>
+      <c r="K26" s="76">
+        <f>AVERAGE(K18:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76">
+        <f>AVERAGE(M18:M21)</f>
+        <v>6.75</v>
+      </c>
+      <c r="N26" s="76"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q26" s="77">
+        <f>AVERAGE(Q18:Q21)</f>
+        <v>15.5</v>
+      </c>
+      <c r="R26" s="77">
+        <f>AVERAGE(R18:R21)</f>
+        <v>1.75</v>
+      </c>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77">
+        <f>AVERAGE(T18:T21)</f>
+        <v>5.25</v>
+      </c>
+      <c r="U26" s="77"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" s="76">
+        <f>AVERAGE(X18:X21)</f>
+        <v>9.75</v>
+      </c>
+      <c r="Y26" s="76">
+        <f>AVERAGE(Y18:Y21)</f>
+        <v>0.25</v>
+      </c>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76">
+        <f>AVERAGE(AA18:AA21)</f>
+        <v>5.75</v>
+      </c>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE26" s="77">
+        <f>AVERAGE(AE18:AE21)</f>
+        <v>10</v>
+      </c>
+      <c r="AF26" s="77">
+        <f>AVERAGE(AF18:AF21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="77">
+        <f>AVERAGE(AH18:AH21)</f>
+        <v>6</v>
+      </c>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL26" s="76">
+        <f>AVERAGE(AL18:AL21)</f>
+        <v>9.75</v>
+      </c>
+      <c r="AM26" s="76">
+        <f>AVERAGE(AM18:AM21)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76">
+        <f t="shared" ref="AN26:AY26" si="2">AVERAGE(AO18:AO21)</f>
+        <v>6</v>
+      </c>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS26" s="77">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AT26" s="77">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AU26" s="77"/>
+      <c r="AV26" s="77">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AW26" s="77"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="AZ26" s="54"/>
-      <c r="BA26" s="71"/>
-      <c r="BB26" s="52"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="50"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="75">
         <f>AVERAGE(B2:B23)</f>
-        <v>32.666666666666664</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="5">
+        <v>31.571428571428573</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" s="76">
         <f>AVERAGE(J2:J23)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" ref="K27:AY27" si="2">AVERAGE(K2:K23)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5">
-        <f t="shared" si="2"/>
-        <v>5.041666666666667</v>
-      </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
+        <v>17.25</v>
+      </c>
+      <c r="K27" s="76">
+        <f t="shared" ref="K27:AY27" si="3">AVERAGE(K2:K23)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76">
+        <f t="shared" si="3"/>
+        <v>5.3214285714285712</v>
+      </c>
+      <c r="N27" s="76"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q27" s="77">
+        <f t="shared" si="3"/>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="R27" s="77">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77">
+        <f t="shared" si="3"/>
+        <v>5.2142857142857144</v>
+      </c>
+      <c r="U27" s="77"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" s="76">
+        <f t="shared" si="3"/>
+        <v>14.307692307692308</v>
+      </c>
+      <c r="Y27" s="76">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76">
+        <f t="shared" si="3"/>
+        <v>5.5357142857142856</v>
+      </c>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE27" s="77">
+        <f t="shared" si="3"/>
+        <v>12.923076923076923</v>
+      </c>
+      <c r="AF27" s="77">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77">
+        <f t="shared" si="3"/>
+        <v>5.8928571428571432</v>
+      </c>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="X27" s="5">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="Y27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5">
-        <f t="shared" si="2"/>
-        <v>5.541666666666667</v>
-      </c>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE27" s="2">
-        <f t="shared" si="2"/>
-        <v>13.363636363636363</v>
-      </c>
-      <c r="AF27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2">
-        <f t="shared" si="2"/>
-        <v>5.875</v>
-      </c>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL27" s="5">
-        <f t="shared" si="2"/>
-        <v>32.75</v>
-      </c>
-      <c r="AM27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5">
-        <f t="shared" si="2"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS27" s="2">
-        <f t="shared" si="2"/>
-        <v>14.583333333333334</v>
-      </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2">
-        <f t="shared" si="2"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="31">
-        <f t="shared" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="AZ27" s="31"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="51"/>
+      <c r="AL27" s="76">
+        <f t="shared" si="3"/>
+        <v>29.714285714285715</v>
+      </c>
+      <c r="AM27" s="76">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76">
+        <f t="shared" si="3"/>
+        <v>5.7857142857142856</v>
+      </c>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS27" s="77">
+        <f t="shared" si="3"/>
+        <v>13.714285714285714</v>
+      </c>
+      <c r="AT27" s="77">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="AU27" s="77"/>
+      <c r="AV27" s="77">
+        <f t="shared" si="3"/>
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="AW27" s="77"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78">
+        <f t="shared" si="3"/>
+        <v>5.5454545454545459</v>
+      </c>
+      <c r="AZ27" s="52"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="49"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
     </row>
@@ -4896,52 +5259,52 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="31"/>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="58"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="55"/>
       <c r="BB28" s="31"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
@@ -4996,8 +5359,8 @@
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="32"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="59"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="56"/>
       <c r="AZ29" s="22"/>
       <c r="BA29" s="40"/>
       <c r="BB29" s="21"/>
@@ -5170,6 +5533,8 @@
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="47"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>

--- a/analiza_uporabniskega_AB_testiranja.xlsx
+++ b/analiza_uporabniskega_AB_testiranja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\KCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1304B98-4032-4168-A374-2A9637004772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54FA394-017E-4AFA-83ED-0316270CA1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="266">
   <si>
     <t>test 1</t>
   </si>
@@ -714,43 +714,127 @@
     <t>Gumb primerjaj, da bi najprej kliknil primerjaj desno zgoraj in potem označil dobavitelje namesto posamezne kvadrate pred dobavitelji.</t>
   </si>
   <si>
-    <t>0,25 Š</t>
-  </si>
-  <si>
-    <t>0,75 Š</t>
-  </si>
-  <si>
-    <t>0,5 ŽIVO</t>
-  </si>
-  <si>
-    <t>0,75 DA</t>
-  </si>
-  <si>
-    <t>0,5 DA</t>
-  </si>
-  <si>
-    <t>0.35 Š</t>
-  </si>
-  <si>
-    <t>0.78 NE</t>
-  </si>
-  <si>
-    <t>0.64 ŽIVO</t>
-  </si>
-  <si>
-    <t>0.855 DA</t>
-  </si>
-  <si>
-    <t>0.781 DA</t>
-  </si>
-  <si>
     <t>0.782 DA</t>
   </si>
   <si>
     <t>0.925 DA</t>
   </si>
   <si>
-    <t>0.857 DA</t>
+    <t>test 18</t>
+  </si>
+  <si>
+    <t>test 19</t>
+  </si>
+  <si>
+    <t>Klika vse kar je možno.</t>
+  </si>
+  <si>
+    <t>Ni vedel da lahko klikneš na kakovost.</t>
+  </si>
+  <si>
+    <t>Nič.</t>
+  </si>
+  <si>
+    <t>enostavnost</t>
+  </si>
+  <si>
+    <t>Š</t>
+  </si>
+  <si>
+    <t>Klikal na vse kar je možno.</t>
+  </si>
+  <si>
+    <t>Ni vedel da lahko klikneš na kakovost</t>
+  </si>
+  <si>
+    <t>Ni uporabil vmesnika ampak primerjal po tabelici</t>
+  </si>
+  <si>
+    <t>Izgled prve strani dobaviteljev.</t>
+  </si>
+  <si>
+    <t>Lepši design pri podrobnosti dobaviteljev.</t>
+  </si>
+  <si>
+    <t>Ni vedu takoj, da lahko klilne na kakovost.</t>
+  </si>
+  <si>
+    <t>Enostavnost</t>
+  </si>
+  <si>
+    <t>Pomankanje graficne vidljivosti preglednost</t>
+  </si>
+  <si>
+    <t>Drugačna barva ozadja… sivo mu ni bila všeč</t>
+  </si>
+  <si>
+    <t>študent</t>
+  </si>
+  <si>
+    <t>Moderen in enostaven slog</t>
+  </si>
+  <si>
+    <t>test 20</t>
+  </si>
+  <si>
+    <t>test 21</t>
+  </si>
+  <si>
+    <t>Ful zgubljen, ni najdu, klikal na podrobnosti vsakega dobavitelja, rabil nekaj časa za orientacijo</t>
+  </si>
+  <si>
+    <t>Rešil takoj</t>
+  </si>
+  <si>
+    <t>Barvna shema, tema.</t>
+  </si>
+  <si>
+    <t>Vrstice na front strani bi spremenu, smiselne enote, boljše podatke v tabela, sortiranje po statusu sodelovanja naj bo po defaultu.</t>
+  </si>
+  <si>
+    <t>Stroški brez enot, tabela je preveč široka, kakovost nesmiselna, design pri vsakem dobavitelju, design pri uporabnikih.</t>
+  </si>
+  <si>
+    <t>Malo, delala s podobnim sistemom (vendar ne dobavitelji)</t>
+  </si>
+  <si>
+    <t>Enostavnost, preprost za uporabo, velik font, primerjava je jasna, sidebar je zelo jasen, čisto, pregledno, učinkovito, primerjava gumb je izjemno velik – zelo dober, sortiranje zelo enostavno.</t>
+  </si>
+  <si>
+    <t>Barvna shema ni ravno najlepša (vendar ni tako pomembno za tako uporabo).</t>
+  </si>
+  <si>
+    <t>Če bi lahko spremenili kaj v aplikaciji, kaj bi to bilo? Nima pripomb, zelo učinkovito je.</t>
+  </si>
+  <si>
+    <t>0,5 Š</t>
+  </si>
+  <si>
+    <t>0,7 NE</t>
+  </si>
+  <si>
+    <t>0,3 ŽIVO</t>
+  </si>
+  <si>
+    <t>0,8 DA</t>
+  </si>
+  <si>
+    <t>0.447 Š</t>
+  </si>
+  <si>
+    <t>0.746 NE</t>
+  </si>
+  <si>
+    <t>0.4995 ŽIVO</t>
+  </si>
+  <si>
+    <t>0.7985 DA</t>
+  </si>
+  <si>
+    <t>0.7965 DA</t>
+  </si>
+  <si>
+    <t>0.9 DA</t>
   </si>
 </sst>
 </file>
@@ -1653,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD57"/>
+  <dimension ref="A1:BD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4392,8 +4476,8 @@
       <c r="AK20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AL20" s="5">
-        <v>5</v>
+      <c r="AL20" s="4">
+        <v>6</v>
       </c>
       <c r="AM20" s="5">
         <v>0</v>
@@ -4426,12 +4510,12 @@
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
     </row>
-    <row r="21" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>92</v>
@@ -4440,9 +4524,9 @@
         <v>131</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="68">
+        <v>203</v>
+      </c>
+      <c r="F21" s="65">
         <v>45668</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4452,20 +4536,22 @@
         <v>191</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="J21" s="5">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="M21" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>35</v>
@@ -4474,18 +4560,16 @@
         <v>106</v>
       </c>
       <c r="Q21" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="R21" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2">
         <v>7</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="U21" s="2"/>
       <c r="V21" s="5" t="s">
         <v>38</v>
       </c>
@@ -4493,20 +4577,16 @@
         <v>106</v>
       </c>
       <c r="X21" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y21" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5"/>
       <c r="AA21" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AB21" s="5"/>
       <c r="AC21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4514,7 +4594,7 @@
         <v>106</v>
       </c>
       <c r="AE21" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="2">
         <v>0</v>
@@ -4523,9 +4603,7 @@
       <c r="AH21" s="2">
         <v>6</v>
       </c>
-      <c r="AI21" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="5" t="s">
         <v>49</v>
       </c>
@@ -4533,18 +4611,16 @@
         <v>106</v>
       </c>
       <c r="AL21" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AM21" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5">
-        <v>7</v>
-      </c>
-      <c r="AP21" s="5" t="s">
-        <v>222</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AP21" s="5"/>
       <c r="AQ21" s="2" t="s">
         <v>52</v>
       </c>
@@ -4552,1048 +4628,1558 @@
         <v>106</v>
       </c>
       <c r="AS21" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT21" s="2">
         <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>7</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AW21" s="2"/>
       <c r="AY21" s="1">
-        <v>8</v>
-      </c>
-      <c r="AZ21" s="1" t="s">
-        <v>223</v>
+        <v>6</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>232</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB21" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="65">
+        <v>45668</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="5">
+        <v>120</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>90</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="T22" s="2">
+        <v>6</v>
+      </c>
       <c r="U22" s="2"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+      <c r="V22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X22" s="5">
+        <v>13</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="AA22" s="5">
+        <v>7</v>
+      </c>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="AC22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="2">
+        <v>5</v>
+      </c>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
+      <c r="AJ22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>11</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>0</v>
+      </c>
       <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
+      <c r="AO22" s="5">
+        <v>6</v>
+      </c>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
+      <c r="AQ22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>8</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>0</v>
+      </c>
       <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
+      <c r="AV22" s="2">
+        <v>5</v>
+      </c>
       <c r="AW22" s="2"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="46"/>
+      <c r="AY22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="69"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="70"/>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="70"/>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="70"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="48"/>
+      <c r="B23" s="1">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="65">
+        <v>45668</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="5">
+        <v>60</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" s="5">
+        <v>6</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>15</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>7</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5">
+        <v>7</v>
+      </c>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW23" s="2"/>
+      <c r="AY23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB23" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="75">
-        <f>AVERAGE(B2:B10)</f>
-        <v>36</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="J24" s="76">
-        <f t="shared" ref="J24:AY24" si="0">AVERAGE(J2:J10)</f>
-        <v>22.8</v>
-      </c>
-      <c r="K24" s="76">
-        <f>AVERAGE(K2:K10)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76">
-        <f t="shared" si="0"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q24" s="77">
-        <f t="shared" si="0"/>
-        <v>19.333333333333332</v>
-      </c>
-      <c r="R24" s="77">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77">
-        <f t="shared" si="0"/>
-        <v>5.4285714285714288</v>
-      </c>
-      <c r="U24" s="77"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="X24" s="76">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="Y24" s="76">
-        <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428568</v>
-      </c>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE24" s="77">
-        <f t="shared" si="0"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="AF24" s="77">
-        <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL24" s="76">
-        <f t="shared" si="0"/>
-        <v>51.571428571428569</v>
-      </c>
-      <c r="AM24" s="76">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76">
-        <f t="shared" si="0"/>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS24" s="77">
-        <f t="shared" si="0"/>
-        <v>11.857142857142858</v>
-      </c>
-      <c r="AT24" s="77">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="AU24" s="77"/>
-      <c r="AV24" s="77">
-        <f t="shared" si="0"/>
-        <v>5.4285714285714288</v>
-      </c>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="78"/>
-      <c r="AY24" s="78">
-        <f t="shared" si="0"/>
-        <v>5.8571428571428568</v>
-      </c>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="50"/>
+    <row r="24" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="65">
+        <v>45668</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="5">
+        <v>90</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5">
+        <v>6</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>6</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>7</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X24" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>6</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5">
+        <v>6</v>
+      </c>
+      <c r="AP24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW24" s="2"/>
+      <c r="AY24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BB24" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="75">
-        <f>AVERAGE(B12:B14)</f>
-        <v>25.666666666666668</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="76">
-        <f>AVERAGE(J12:J14)</f>
-        <v>19.666666666666668</v>
-      </c>
-      <c r="K25" s="76">
-        <f>AVERAGE(K12:K14)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76">
-        <f>AVERAGE(M12:M14)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="N25" s="76"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="77">
-        <f>AVERAGE(Q12:Q14)</f>
-        <v>90.666666666666671</v>
-      </c>
-      <c r="R25" s="77">
-        <f>AVERAGE(R12:R14)</f>
-        <v>2</v>
-      </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77">
-        <f>AVERAGE(T12:T14)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="U25" s="77"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="X25" s="76">
-        <f>AVERAGE(X12:X14)</f>
-        <v>14</v>
-      </c>
-      <c r="Y25" s="76">
-        <f>AVERAGE(Y12:Y14)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76">
-        <f>AVERAGE(AA12:AA14)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE25" s="77">
-        <f>AVERAGE(AE12:AE14)</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="AF25" s="77">
-        <f>AVERAGE(AF12:AF14)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77">
-        <f>AVERAGE(AH12:AH14)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL25" s="76">
-        <f>AVERAGE(AL12:AL14)</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AM25" s="76">
-        <f>AVERAGE(AM12:AM14)</f>
+    <row r="25" spans="1:56" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="65">
+        <v>45668</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="5">
+        <v>6</v>
+      </c>
+      <c r="K25" s="5">
         <v>0</v>
       </c>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="76">
-        <f t="shared" ref="AN25:AY25" si="1">AVERAGE(AO12:AO14)</f>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5">
+        <v>6</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>8</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2">
         <v>7</v>
       </c>
-      <c r="AP25" s="76"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS25" s="77">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AT25" s="77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AU25" s="77"/>
-      <c r="AV25" s="77">
-        <f t="shared" si="1"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="79">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="52"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X25" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5">
+        <v>6</v>
+      </c>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>12</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW25" s="2"/>
+      <c r="AY25" s="1">
+        <v>10</v>
+      </c>
+      <c r="AZ25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BB25" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="75">
-        <f>AVERAGE(B18:B21)</f>
-        <v>28.25</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="J26" s="76">
-        <f>AVERAGE(J18:J21)</f>
-        <v>8.5</v>
-      </c>
-      <c r="K26" s="76">
-        <f>AVERAGE(K18:K21)</f>
+    <row r="26" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="65">
+        <v>45668</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="5">
+        <v>5</v>
+      </c>
+      <c r="K26" s="5">
         <v>0</v>
       </c>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76">
-        <f>AVERAGE(M18:M21)</f>
-        <v>6.75</v>
-      </c>
-      <c r="N26" s="76"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q26" s="77">
-        <f>AVERAGE(Q18:Q21)</f>
-        <v>15.5</v>
-      </c>
-      <c r="R26" s="77">
-        <f>AVERAGE(R18:R21)</f>
-        <v>1.75</v>
-      </c>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77">
-        <f>AVERAGE(T18:T21)</f>
-        <v>5.25</v>
-      </c>
-      <c r="U26" s="77"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="X26" s="76">
-        <f>AVERAGE(X18:X21)</f>
-        <v>9.75</v>
-      </c>
-      <c r="Y26" s="76">
-        <f>AVERAGE(Y18:Y21)</f>
-        <v>0.25</v>
-      </c>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76">
-        <f>AVERAGE(AA18:AA21)</f>
-        <v>5.75</v>
-      </c>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE26" s="77">
-        <f>AVERAGE(AE18:AE21)</f>
-        <v>10</v>
-      </c>
-      <c r="AF26" s="77">
-        <f>AVERAGE(AF18:AF21)</f>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5">
+        <v>7</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>9</v>
+      </c>
+      <c r="R26" s="2">
         <v>0</v>
       </c>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="77">
-        <f>AVERAGE(AH18:AH21)</f>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2">
         <v>6</v>
       </c>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL26" s="76">
-        <f>AVERAGE(AL18:AL21)</f>
-        <v>9.75</v>
-      </c>
-      <c r="AM26" s="76">
-        <f>AVERAGE(AM18:AM21)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="76">
-        <f t="shared" ref="AN26:AY26" si="2">AVERAGE(AO18:AO21)</f>
+      <c r="U26" s="2"/>
+      <c r="V26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X26" s="5">
+        <v>17</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5">
         <v>6</v>
       </c>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS26" s="77">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="AT26" s="77">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="AU26" s="77"/>
-      <c r="AV26" s="77">
-        <f t="shared" si="2"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2">
+        <v>7</v>
+      </c>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL26" s="5">
+        <v>7</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5">
+        <v>7</v>
+      </c>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS26" s="2">
         <v>5</v>
       </c>
-      <c r="AW26" s="77"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="53"/>
-      <c r="BB26" s="50"/>
+      <c r="AT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW26" s="2"/>
+      <c r="AY26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="75">
-        <f>AVERAGE(B2:B23)</f>
-        <v>31.571428571428573</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="J27" s="76">
-        <f>AVERAGE(J2:J23)</f>
-        <v>17.25</v>
-      </c>
-      <c r="K27" s="76">
-        <f t="shared" ref="K27:AY27" si="3">AVERAGE(K2:K23)</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76">
-        <f t="shared" si="3"/>
-        <v>5.3214285714285712</v>
-      </c>
-      <c r="N27" s="76"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q27" s="77">
-        <f t="shared" si="3"/>
-        <v>34.615384615384613</v>
-      </c>
-      <c r="R27" s="77">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77">
-        <f t="shared" si="3"/>
-        <v>5.2142857142857144</v>
-      </c>
-      <c r="U27" s="77"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="X27" s="76">
-        <f t="shared" si="3"/>
-        <v>14.307692307692308</v>
-      </c>
-      <c r="Y27" s="76">
-        <f t="shared" si="3"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76">
-        <f t="shared" si="3"/>
-        <v>5.5357142857142856</v>
-      </c>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE27" s="77">
-        <f t="shared" si="3"/>
-        <v>12.923076923076923</v>
-      </c>
-      <c r="AF27" s="77">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="77">
-        <f t="shared" si="3"/>
-        <v>5.8928571428571432</v>
-      </c>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="76"/>
-      <c r="AK27" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL27" s="76">
-        <f t="shared" si="3"/>
-        <v>29.714285714285715</v>
-      </c>
-      <c r="AM27" s="76">
-        <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="76">
-        <f t="shared" si="3"/>
-        <v>5.7857142857142856</v>
-      </c>
-      <c r="AP27" s="76"/>
-      <c r="AQ27" s="77"/>
-      <c r="AR27" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS27" s="77">
-        <f t="shared" si="3"/>
-        <v>13.714285714285714</v>
-      </c>
-      <c r="AT27" s="77">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="AU27" s="77"/>
-      <c r="AV27" s="77">
-        <f t="shared" si="3"/>
-        <v>5.3571428571428568</v>
-      </c>
-      <c r="AW27" s="77"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78">
-        <f t="shared" si="3"/>
-        <v>5.5454545454545459</v>
-      </c>
-      <c r="AZ27" s="52"/>
-      <c r="BA27" s="53"/>
-      <c r="BB27" s="49"/>
+    <row r="27" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="1">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="68">
+        <v>45668</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="5">
+        <v>16</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>7</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>22</v>
+      </c>
+      <c r="R27" s="2">
+        <v>4</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2">
+        <v>7</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X27" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>18</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5">
+        <v>7</v>
+      </c>
+      <c r="AP27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>12</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB27" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="7"/>
-      <c r="AR28" s="7"/>
-      <c r="AS28" s="7"/>
-      <c r="AT28" s="7"/>
-      <c r="AU28" s="7"/>
-      <c r="AV28" s="7"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="54"/>
-      <c r="BA28" s="55"/>
-      <c r="BB28" s="31"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="35"/>
+      <c r="AZ28" s="35"/>
+      <c r="BA28" s="35"/>
+      <c r="BB28" s="46"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="56"/>
-      <c r="AZ29" s="22"/>
-      <c r="BA29" s="40"/>
-      <c r="BB29" s="21"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="70"/>
+      <c r="AS29" s="70"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="71"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="35"/>
+      <c r="BB29" s="48"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="35"/>
-      <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="35"/>
-      <c r="BB30" s="35"/>
+      <c r="A30" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="75">
+        <f>AVERAGE(B2:B10)</f>
+        <v>36</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="76">
+        <f>AVERAGE(J2:J10)</f>
+        <v>22.8</v>
+      </c>
+      <c r="K30" s="76">
+        <f>AVERAGE(K2:K10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76">
+        <f>AVERAGE(M2:M10)</f>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="N30" s="76"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="77">
+        <f>AVERAGE(Q2:Q10)</f>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="R30" s="77">
+        <f>AVERAGE(R2:R10)</f>
+        <v>0.75</v>
+      </c>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77">
+        <f>AVERAGE(T2:T10)</f>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="U30" s="77"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="X30" s="76">
+        <f>AVERAGE(X2:X10)</f>
+        <v>17.5</v>
+      </c>
+      <c r="Y30" s="76">
+        <f>AVERAGE(Y2:Y10)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76">
+        <f>AVERAGE(AA2:AA10)</f>
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE30" s="77">
+        <f>AVERAGE(AE2:AE10)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="AF30" s="77">
+        <f>AVERAGE(AF2:AF10)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77">
+        <f>AVERAGE(AH2:AH10)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL30" s="76">
+        <f>AVERAGE(AL2:AL10)</f>
+        <v>51.571428571428569</v>
+      </c>
+      <c r="AM30" s="76">
+        <f>AVERAGE(AM2:AM10)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76">
+        <f>AVERAGE(AO2:AO10)</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS30" s="77">
+        <f>AVERAGE(AS2:AS10)</f>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="AT30" s="77">
+        <f>AVERAGE(AT2:AT10)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77">
+        <f>AVERAGE(AV2:AV10)</f>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="AW30" s="77"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="78">
+        <f>AVERAGE(AY2:AY10)</f>
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="50"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
+      <c r="A31" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="75">
+        <f>AVERAGE(B12:B14)</f>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J31" s="76">
+        <f>AVERAGE(J12:J14)</f>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="K31" s="76">
+        <f>AVERAGE(K12:K14)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76">
+        <f>AVERAGE(M12:M14)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="N31" s="76"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q31" s="77">
+        <f>AVERAGE(Q12:Q14)</f>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="R31" s="77">
+        <f>AVERAGE(R12:R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77">
+        <f>AVERAGE(T12:T14)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="U31" s="77"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="X31" s="76">
+        <f>AVERAGE(X12:X14)</f>
+        <v>14</v>
+      </c>
+      <c r="Y31" s="76">
+        <f>AVERAGE(Y12:Y14)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76">
+        <f>AVERAGE(AA12:AA14)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE31" s="77">
+        <f>AVERAGE(AE12:AE14)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AF31" s="77">
+        <f>AVERAGE(AF12:AF14)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77">
+        <f>AVERAGE(AH12:AH14)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL31" s="76">
+        <f>AVERAGE(AL12:AL14)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AM31" s="76">
+        <f>AVERAGE(AM12:AM14)</f>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="76">
+        <f>AVERAGE(AO12:AO14)</f>
+        <v>7</v>
+      </c>
+      <c r="AP31" s="76"/>
+      <c r="AQ31" s="77"/>
+      <c r="AR31" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS31" s="77">
+        <f>AVERAGE(AS12:AS14)</f>
+        <v>19</v>
+      </c>
+      <c r="AT31" s="77">
+        <f>AVERAGE(AT12:AT14)</f>
+        <v>1</v>
+      </c>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="77">
+        <f>AVERAGE(AV12:AV14)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AW31" s="77"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="79">
+        <f>AVERAGE(AY12:AY14)</f>
+        <v>4</v>
+      </c>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="31"/>
+      <c r="BB31" s="52"/>
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="47"/>
-      <c r="AY32" s="47"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
+      <c r="A32" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="75">
+        <f>AVERAGE(B18:B27)</f>
+        <v>27.7</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" s="76">
+        <f>AVERAGE(J18:J27)</f>
+        <v>43.5</v>
+      </c>
+      <c r="K32" s="76">
+        <f>AVERAGE(K18:K27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76">
+        <f>AVERAGE(M18:M27)</f>
+        <v>5.4</v>
+      </c>
+      <c r="N32" s="76"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q32" s="77">
+        <f>AVERAGE(Q18:Q27)</f>
+        <v>20</v>
+      </c>
+      <c r="R32" s="77">
+        <f>AVERAGE(R18:R27)</f>
+        <v>0.8</v>
+      </c>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77">
+        <f>AVERAGE(T18:T27)</f>
+        <v>6.1</v>
+      </c>
+      <c r="U32" s="77"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="X32" s="76">
+        <f>AVERAGE(X18:X27)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Y32" s="76">
+        <f>AVERAGE(Y18:Y27)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76">
+        <f>AVERAGE(AA18:AA27)</f>
+        <v>6.3</v>
+      </c>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE32" s="77">
+        <f>AVERAGE(AE18:AE27)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AF32" s="77">
+        <f>AVERAGE(AF18:AF27)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77">
+        <f>AVERAGE(AH18:AH27)</f>
+        <v>6.1</v>
+      </c>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL32" s="76">
+        <f>AVERAGE(AL18:AL27)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AM32" s="76">
+        <f>AVERAGE(AM18:AM27)</f>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="76"/>
+      <c r="AO32" s="76">
+        <f>AVERAGE(AO18:AO27)</f>
+        <v>6.1</v>
+      </c>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="77"/>
+      <c r="AR32" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS32" s="77">
+        <f>AVERAGE(AS18:AS27)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AT32" s="77">
+        <f>AVERAGE(AT18:AT27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AU32" s="77"/>
+      <c r="AV32" s="77">
+        <f>AVERAGE(AV18:AV27)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AW32" s="77"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="79">
+        <f>AVERAGE(AY18:AY27)</f>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="50"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
+      <c r="A33" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="75">
+        <f>AVERAGE(B2:B29)</f>
+        <v>30.3</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" s="76">
+        <f>AVERAGE(J2:J29)</f>
+        <v>33.777777777777779</v>
+      </c>
+      <c r="K33" s="76">
+        <f>AVERAGE(K2:K29)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76">
+        <f>AVERAGE(M2:M29)</f>
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="N33" s="76"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q33" s="77">
+        <f>AVERAGE(Q2:Q29)</f>
+        <v>30.94736842105263</v>
+      </c>
+      <c r="R33" s="77">
+        <f>AVERAGE(R2:R29)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77">
+        <f>AVERAGE(T2:T29)</f>
+        <v>5.65</v>
+      </c>
+      <c r="U33" s="77"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="X33" s="76">
+        <f>AVERAGE(X2:X29)</f>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="Y33" s="76">
+        <f>AVERAGE(Y2:Y29)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76">
+        <f>AVERAGE(AA2:AA29)</f>
+        <v>5.875</v>
+      </c>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE33" s="77">
+        <f>AVERAGE(AE2:AE29)</f>
+        <v>11.052631578947368</v>
+      </c>
+      <c r="AF33" s="77">
+        <f>AVERAGE(AF2:AF29)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="77">
+        <f>AVERAGE(AH2:AH29)</f>
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL33" s="76">
+        <f>AVERAGE(AL2:AL29)</f>
+        <v>23.75</v>
+      </c>
+      <c r="AM33" s="76">
+        <f>AVERAGE(AM2:AM29)</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="76">
+        <f>AVERAGE(AO2:AO29)</f>
+        <v>5.9</v>
+      </c>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS33" s="77">
+        <f>AVERAGE(AS2:AS29)</f>
+        <v>11.85</v>
+      </c>
+      <c r="AT33" s="77">
+        <f>AVERAGE(AT2:AT29)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AU33" s="77"/>
+      <c r="AV33" s="77">
+        <f>AVERAGE(AV2:AV29)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AW33" s="77"/>
+      <c r="AX33" s="78"/>
+      <c r="AY33" s="78">
+        <f>AVERAGE(AY2:AY29)</f>
+        <v>5.7058823529411766</v>
+      </c>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="49"/>
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
     </row>
@@ -5605,51 +6191,53 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="55"/>
+      <c r="BB34" s="31"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
     </row>
@@ -5702,15 +6290,19 @@
       <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="48"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="22"/>
+      <c r="BA35" s="40"/>
+      <c r="BB35" s="21"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5759,9 +6351,11 @@
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
+      <c r="AX36" s="35"/>
+      <c r="AY36" s="35"/>
+      <c r="AZ36" s="35"/>
+      <c r="BA36" s="35"/>
+      <c r="BB36" s="35"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
     </row>
@@ -5871,6 +6465,8 @@
       <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
+      <c r="AX38" s="47"/>
+      <c r="AY38" s="47"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
@@ -6887,6 +7483,342 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="2"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="2"/>
+      <c r="AW57" s="2"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2"/>
+      <c r="AV58" s="2"/>
+      <c r="AW58" s="2"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="2"/>
+      <c r="AW59" s="2"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="2"/>
+      <c r="AW60" s="2"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="2"/>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="2"/>
+      <c r="AW61" s="2"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="2"/>
+      <c r="AR62" s="2"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2"/>
+      <c r="AV62" s="2"/>
+      <c r="AW62" s="2"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
